--- a/Mobility_data/Other_input/Table_Variables_Total_emissions_wout_RW.xlsx
+++ b/Mobility_data/Other_input/Table_Variables_Total_emissions_wout_RW.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
   <si>
     <t>varname</t>
   </si>
@@ -243,6 +243,15 @@
   </si>
   <si>
     <t>P_NUTZ_OPNV</t>
+  </si>
+  <si>
+    <t>P_ANZREISE</t>
+  </si>
+  <si>
+    <t>Number_Trips</t>
+  </si>
+  <si>
+    <t>values up to 50 / remove above</t>
   </si>
 </sst>
 </file>
@@ -567,21 +576,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" customWidth="1"/>
-    <col min="4" max="4" width="43.36328125" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -598,7 +607,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -615,131 +624,114 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="E7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
       </c>
       <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>46</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -751,12 +743,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -768,12 +760,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -785,29 +777,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
@@ -819,12 +811,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
@@ -836,12 +828,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
@@ -853,63 +845,63 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>39</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>67</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>41</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>52</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
         <v>42</v>
@@ -921,12 +913,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
         <v>42</v>
@@ -938,46 +930,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>60</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>61</v>
-      </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
       </c>
       <c r="C23" t="s">
         <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
         <v>59</v>
@@ -989,12 +981,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
         <v>59</v>
@@ -1004,6 +996,40 @@
       </c>
       <c r="E25">
         <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
